--- a/codes/test_shell_output/testall_entifakh_details_2.xlsx
+++ b/codes/test_shell_output/testall_entifakh_details_2.xlsx
@@ -348,10 +348,10 @@
   <sheetData>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>2.436402723038338</v>
+        <v>2.524698133918771</v>
       </c>
       <c r="B6">
-        <v>2.436402723038338</v>
+        <v>2.524698133918771</v>
       </c>
     </row>
     <row r="9" spans="1:2">

--- a/codes/test_shell_output/testall_entifakh_details_2.xlsx
+++ b/codes/test_shell_output/testall_entifakh_details_2.xlsx
@@ -348,10 +348,10 @@
   <sheetData>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>2.524698133918771</v>
+        <v>1.452599388379205</v>
       </c>
       <c r="B6">
-        <v>2.524698133918771</v>
+        <v>1.452599388379205</v>
       </c>
     </row>
     <row r="9" spans="1:2">

--- a/codes/test_shell_output/testall_entifakh_details_2.xlsx
+++ b/codes/test_shell_output/testall_entifakh_details_2.xlsx
@@ -348,10 +348,10 @@
   <sheetData>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>1.452599388379205</v>
+        <v>0.992881228924691</v>
       </c>
       <c r="B6">
-        <v>1.452599388379205</v>
+        <v>0.992881228924691</v>
       </c>
     </row>
     <row r="9" spans="1:2">
